--- a/lib/data/game1-elsa-ye-virginia-victor.xlsx
+++ b/lib/data/game1-elsa-ye-virginia-victor.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,124 +106,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -251,7 +146,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>27</v>
@@ -338,10 +233,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,8 +293,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>